--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp4.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,20 +480,20 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-40.74000000000004</v>
+        <v>-40.74</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-40.74000000000007</v>
+        <v>-40.74000000000002</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>-0.112</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-1.385866261398142</v>
+        <v>-1.385866261398156</v>
       </c>
     </row>
     <row r="3">
@@ -501,13 +501,13 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-41.01404761904765</v>
+        <v>-41.01404761904763</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-40.7503647416414</v>
+        <v>-40.75036474164135</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2636828774062536</v>
+        <v>-0.263682877406282</v>
       </c>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
@@ -518,13 +518,13 @@
         <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-41.15976190476193</v>
+        <v>-41.15976190476191</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-40.76072948328274</v>
+        <v>-40.76072948328269</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3990324214791912</v>
+        <v>-0.3990324214792267</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -535,13 +535,13 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-41.22047619047622</v>
+        <v>-41.22047619047619</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-40.77109422492408</v>
+        <v>-40.77109422492403</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.449381965552142</v>
+        <v>-0.4493819655521634</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -552,13 +552,13 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-41.24380952380955</v>
+        <v>-41.24380952380952</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-40.78145896656541</v>
+        <v>-40.78145896656537</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.462350557244136</v>
+        <v>-0.4623505572441573</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -569,13 +569,13 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-41.28190476190479</v>
+        <v>-41.28190476190477</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-40.79182370820675</v>
+        <v>-40.7918237082067</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4900810536980416</v>
+        <v>-0.49008105369807</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -586,13 +586,13 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-41.3266666666667</v>
+        <v>-41.32666666666667</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-40.80218844984809</v>
+        <v>-40.80218844984804</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.5244782168186077</v>
+        <v>-0.5244782168186291</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -603,13 +603,13 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-41.37666666666669</v>
+        <v>-41.37666666666667</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-40.81255319148943</v>
+        <v>-40.81255319148938</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5641134751772654</v>
+        <v>-0.5641134751772867</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -620,13 +620,13 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-41.43714285714289</v>
+        <v>-41.43714285714286</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-40.82291793313076</v>
+        <v>-40.82291793313071</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.6142249240121274</v>
+        <v>-0.6142249240121487</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -637,13 +637,13 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-41.48809523809526</v>
+        <v>-41.48809523809524</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-40.8332826747721</v>
+        <v>-40.83328267477205</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.6548125633231621</v>
+        <v>-0.6548125633231905</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -654,13 +654,13 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-41.54285714285717</v>
+        <v>-41.54285714285714</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-40.84364741641344</v>
+        <v>-40.84364741641339</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.6992097264437334</v>
+        <v>-0.6992097264437547</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -671,13 +671,13 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-41.6066666666667</v>
+        <v>-41.60666666666667</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-40.85401215805477</v>
+        <v>-40.85401215805473</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.7526545086119256</v>
+        <v>-0.7526545086119398</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -688,13 +688,13 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-41.67000000000003</v>
+        <v>-41.67</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-40.86437689969611</v>
+        <v>-40.86437689969606</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.8056231003039187</v>
+        <v>-0.80562310030394</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -705,13 +705,13 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-41.73714285714289</v>
+        <v>-41.73714285714286</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-40.87474164133745</v>
+        <v>-40.8747416413374</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.8624012158054342</v>
+        <v>-0.8624012158054555</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -722,13 +722,13 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-41.80333333333336</v>
+        <v>-41.80333333333333</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-40.88510638297878</v>
+        <v>-40.88510638297874</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.9182269503545726</v>
+        <v>-0.9182269503545868</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -739,13 +739,13 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-41.8709523809524</v>
+        <v>-41.87095238095238</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-40.89547112462012</v>
+        <v>-40.89547112462007</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.9754812563322801</v>
+        <v>-0.9754812563323085</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -756,13 +756,13 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-41.93714285714289</v>
+        <v>-41.93714285714286</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-40.90583586626146</v>
+        <v>-40.90583586626141</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1.031306990881426</v>
+        <v>-1.031306990881447</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -773,13 +773,13 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-42.0014285714286</v>
+        <v>-42.00142857142858</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-40.91620060790279</v>
+        <v>-40.91620060790275</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.085227963525803</v>
+        <v>-1.085227963525824</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -790,13 +790,13 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-42.06476190476194</v>
+        <v>-42.06476190476191</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-40.92656534954413</v>
+        <v>-40.92656534954409</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.138196555217803</v>
+        <v>-1.138196555217817</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -807,13 +807,13 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-42.11952380952383</v>
+        <v>-42.11952380952381</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-40.93693009118547</v>
+        <v>-40.93693009118542</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.18259371833836</v>
+        <v>-1.182593718338389</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -824,13 +824,13 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-42.16952380952384</v>
+        <v>-42.16952380952382</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-40.94729483282681</v>
+        <v>-40.94729483282676</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.222228976697025</v>
+        <v>-1.22222897669706</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -841,13 +841,13 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-42.22238095238098</v>
+        <v>-42.22238095238096</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-40.95765957446815</v>
+        <v>-40.9576595744681</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.264721377912835</v>
+        <v>-1.264721377912856</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -858,13 +858,13 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-42.26190476190479</v>
+        <v>-42.26190476190476</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-40.96802431610949</v>
+        <v>-40.96802431610944</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.293880445795303</v>
+        <v>-1.293880445795317</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -875,13 +875,13 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-42.30190476190479</v>
+        <v>-42.30190476190477</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-40.97838905775082</v>
+        <v>-40.97838905775077</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.323515704153969</v>
+        <v>-1.323515704153991</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -892,13 +892,13 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-42.33380952380956</v>
+        <v>-42.33380952380953</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-40.98875379939216</v>
+        <v>-40.98875379939211</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.345055724417399</v>
+        <v>-1.345055724417421</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -909,13 +909,13 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-42.35904761904766</v>
+        <v>-42.35904761904764</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-40.9991185410335</v>
+        <v>-40.99911854103345</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1.359929078014162</v>
+        <v>-1.359929078014183</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -926,13 +926,13 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-42.38476190476193</v>
+        <v>-42.38476190476192</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-41.00948328267484</v>
+        <v>-41.00948328267479</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-1.375278622087095</v>
+        <v>-1.37527862208713</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -943,13 +943,13 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-42.40571428571431</v>
+        <v>-42.40571428571428</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-41.01984802431617</v>
+        <v>-41.01984802431613</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-1.385866261398142</v>
+        <v>-1.385866261398156</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -960,13 +960,13 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-42.41571428571432</v>
+        <v>-42.41571428571429</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-41.03021276595751</v>
+        <v>-41.03021276595747</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-1.385501519756808</v>
+        <v>-1.385501519756822</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -977,13 +977,13 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-42.41380952380955</v>
+        <v>-42.41380952380952</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-41.04057750759885</v>
+        <v>-41.0405775075988</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-1.3732320162107</v>
+        <v>-1.373232016210714</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -994,13 +994,13 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-42.40380952380955</v>
+        <v>-42.40380952380953</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-41.05094224924018</v>
+        <v>-41.05094224924014</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.35286727456937</v>
+        <v>-1.352867274569391</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1011,13 +1011,13 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-42.3961904761905</v>
+        <v>-42.39619047619048</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-41.06130699088152</v>
+        <v>-41.06130699088148</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-1.334883485308978</v>
+        <v>-1.334883485309</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1028,13 +1028,13 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-42.38523809523812</v>
+        <v>-42.38523809523809</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-41.07167173252286</v>
+        <v>-41.07167173252282</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-1.313566362715264</v>
+        <v>-1.313566362715278</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1045,13 +1045,13 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-42.37523809523812</v>
+        <v>-42.3752380952381</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-41.0820364741642</v>
+        <v>-41.08203647416415</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-1.293201621073919</v>
+        <v>-1.293201621073955</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1062,13 +1062,13 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-42.35761904761908</v>
+        <v>-42.35761904761905</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-41.09240121580553</v>
+        <v>-41.09240121580549</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-1.265217831813551</v>
+        <v>-1.265217831813565</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1079,13 +1079,13 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-42.33952380952384</v>
+        <v>-42.33952380952381</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-41.10276595744687</v>
+        <v>-41.10276595744683</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.23675785207697</v>
+        <v>-1.236757852076984</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1096,13 +1096,13 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-42.32809523809527</v>
+        <v>-42.32809523809524</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-41.11313069908821</v>
+        <v>-41.11313069908817</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-1.214964539007056</v>
+        <v>-1.214964539007077</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1113,13 +1113,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-42.3166666666667</v>
+        <v>-42.31666666666668</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-41.12349544072954</v>
+        <v>-41.1234954407295</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-1.193171225937157</v>
+        <v>-1.193171225937178</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1130,13 +1130,13 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-42.30238095238099</v>
+        <v>-42.30238095238096</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-41.13386018237088</v>
+        <v>-41.13386018237084</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-1.168520770010105</v>
+        <v>-1.168520770010126</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1147,13 +1147,13 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-42.28476190476194</v>
+        <v>-42.28476190476191</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-41.14422492401222</v>
+        <v>-41.14422492401218</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-1.140536980749715</v>
+        <v>-1.140536980749729</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1164,13 +1164,13 @@
         <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-42.26666666666669</v>
+        <v>-42.26666666666667</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-41.15458966565355</v>
+        <v>-41.15458966565351</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-1.112077001013141</v>
+        <v>-1.112077001013162</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1181,13 +1181,13 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-42.25333333333336</v>
+        <v>-42.25333333333334</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-41.16495440729489</v>
+        <v>-41.16495440729485</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-1.088378926038466</v>
+        <v>-1.088378926038494</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1198,13 +1198,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-42.24285714285718</v>
+        <v>-42.24285714285715</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-41.17531914893623</v>
+        <v>-41.17531914893619</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-1.067537993920944</v>
+        <v>-1.067537993920958</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1215,13 +1215,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-42.23952380952385</v>
+        <v>-42.23952380952382</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-41.18568389057756</v>
+        <v>-41.18568389057753</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-1.053839918946281</v>
+        <v>-1.053839918946288</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1232,13 +1232,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-42.23857142857146</v>
+        <v>-42.23857142857144</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-41.1960486322189</v>
+        <v>-41.19604863221886</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-1.042522796352557</v>
+        <v>-1.042522796352578</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1249,13 +1249,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-42.24190476190479</v>
+        <v>-42.24190476190477</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-41.20641337386024</v>
+        <v>-41.2064133738602</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-1.035491388044548</v>
+        <v>-1.035491388044569</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1266,13 +1266,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-42.24952380952384</v>
+        <v>-42.24952380952382</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-41.21677811550158</v>
+        <v>-41.21677811550154</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-1.032745694022253</v>
+        <v>-1.032745694022275</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1283,13 +1283,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-42.25523809523813</v>
+        <v>-42.2552380952381</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-41.22714285714292</v>
+        <v>-41.22714285714287</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-1.028095238095212</v>
+        <v>-1.028095238095226</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1300,13 +1300,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-42.2614285714286</v>
+        <v>-42.26142857142857</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-41.23750759878425</v>
+        <v>-41.23750759878421</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-1.023920972644341</v>
+        <v>-1.023920972644362</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1317,13 +1317,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-42.26571428571432</v>
+        <v>-42.2657142857143</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-41.24787234042559</v>
+        <v>-41.24787234042555</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-1.017841945288723</v>
+        <v>-1.017841945288744</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1334,13 +1334,13 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-42.27285714285718</v>
+        <v>-42.27285714285715</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-41.25823708206693</v>
+        <v>-41.25823708206689</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-1.01462006079025</v>
+        <v>-1.014620060790257</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1351,13 +1351,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-42.28000000000003</v>
+        <v>-42.28</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-41.26860182370827</v>
+        <v>-41.26860182370822</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-1.011398176291763</v>
+        <v>-1.011398176291777</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1368,13 +1368,13 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-42.28238095238098</v>
+        <v>-42.28238095238096</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-41.27896656534961</v>
+        <v>-41.27896656534956</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-1.003414387031377</v>
+        <v>-1.003414387031398</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1385,13 +1385,13 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-42.28761904761907</v>
+        <v>-42.28761904761905</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-41.28933130699094</v>
+        <v>-41.2893313069909</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.9982877406281361</v>
+        <v>-0.9982877406281503</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1402,13 +1402,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-42.28428571428574</v>
+        <v>-42.28428571428572</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-41.29969604863228</v>
+        <v>-41.29969604863224</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.9845896656534663</v>
+        <v>-0.9845896656534876</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1419,13 +1419,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-42.28095238095241</v>
+        <v>-42.28095238095239</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-41.31006079027362</v>
+        <v>-41.31006079027357</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.9708915906787965</v>
+        <v>-0.9708915906788178</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1436,13 +1436,13 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-42.28285714285718</v>
+        <v>-42.28285714285715</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-41.32042553191495</v>
+        <v>-41.32042553191491</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.9624316109422324</v>
+        <v>-0.9624316109422395</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1453,13 +1453,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-42.28000000000003</v>
+        <v>-42.28000000000001</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-41.33079027355629</v>
+        <v>-41.33079027355625</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.9492097264437405</v>
+        <v>-0.9492097264437547</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1470,13 +1470,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-42.27238095238098</v>
+        <v>-42.27238095238096</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-41.34115501519763</v>
+        <v>-41.34115501519759</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.9312259371833562</v>
+        <v>-0.9312259371833775</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1487,13 +1487,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-42.25809523809527</v>
+        <v>-42.25809523809524</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-41.35151975683897</v>
+        <v>-41.35151975683893</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.9065754812562972</v>
+        <v>-0.9065754812563185</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1504,13 +1504,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-42.23809523809527</v>
+        <v>-42.23809523809524</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-41.3618844984803</v>
+        <v>-41.36188449848026</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.8762107396149688</v>
+        <v>-0.8762107396149759</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1521,13 +1521,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-42.22047619047622</v>
+        <v>-42.2204761904762</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-41.37224924012164</v>
+        <v>-41.3722492401216</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.8482269503545794</v>
+        <v>-0.8482269503545936</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1538,13 +1538,13 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-42.19952380952384</v>
+        <v>-42.19952380952382</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-41.38261398176298</v>
+        <v>-41.38261398176294</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.8169098277608597</v>
+        <v>-0.8169098277608811</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1555,13 +1555,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-42.18380952380956</v>
+        <v>-42.18380952380953</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-41.39297872340431</v>
+        <v>-41.39297872340428</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.7908308004052458</v>
+        <v>-0.7908308004052529</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1572,13 +1572,13 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-42.16285714285717</v>
+        <v>-42.16285714285715</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-41.40334346504565</v>
+        <v>-41.40334346504562</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.759513677811519</v>
+        <v>-0.7595136778115332</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1589,13 +1589,13 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-42.14095238095241</v>
+        <v>-42.14095238095238</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-41.41370820668699</v>
+        <v>-41.41370820668695</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.7272441742654223</v>
+        <v>-0.7272441742654365</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1606,13 +1606,13 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-42.12428571428574</v>
+        <v>-42.12428571428572</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-41.42407294832832</v>
+        <v>-41.42407294832829</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.7002127659574171</v>
+        <v>-0.7002127659574313</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1623,13 +1623,13 @@
         <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-42.10000000000002</v>
+        <v>-42.10000000000001</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-41.43443768996966</v>
+        <v>-41.43443768996963</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.66556231003036</v>
+        <v>-0.6655623100303814</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1640,13 +1640,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-42.0761904761905</v>
+        <v>-42.07619047619048</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-41.444802431611</v>
+        <v>-41.44480243161097</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.6313880445795022</v>
+        <v>-0.6313880445795164</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1657,13 +1657,13 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-42.04952380952383</v>
+        <v>-42.04952380952381</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-41.45516717325233</v>
+        <v>-41.4551671732523</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.5943566362714989</v>
+        <v>-0.5943566362715131</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1674,13 +1674,13 @@
         <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-42.02190476190479</v>
+        <v>-42.02190476190476</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-41.46553191489367</v>
+        <v>-41.46553191489364</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.5563728470111187</v>
+        <v>-0.5563728470111258</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1691,13 +1691,13 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-42.00238095238098</v>
+        <v>-42.00238095238096</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-41.47589665653501</v>
+        <v>-41.47589665653498</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.5264842958459681</v>
+        <v>-0.5264842958459823</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1708,13 +1708,13 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-41.98000000000003</v>
+        <v>-41.98</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-41.48626139817635</v>
+        <v>-41.48626139817631</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.4937386018236793</v>
+        <v>-0.4937386018236936</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1725,13 +1725,13 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-41.9561904761905</v>
+        <v>-41.95619047619049</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-41.49662613981769</v>
+        <v>-41.49662613981765</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.4595643363728144</v>
+        <v>-0.4595643363728357</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1742,13 +1742,13 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-41.92952380952384</v>
+        <v>-41.92952380952381</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-41.50699088145902</v>
+        <v>-41.50699088145899</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.4225329280648111</v>
+        <v>-0.4225329280648253</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1759,13 +1759,13 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-41.90190476190479</v>
+        <v>-41.90190476190476</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-41.51735562310036</v>
+        <v>-41.51735562310033</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.3845491388044238</v>
+        <v>-0.3845491388044309</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1776,13 +1776,13 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-41.8814285714286</v>
+        <v>-41.88142857142857</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-41.5277203647417</v>
+        <v>-41.52772036474166</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.3537082066869033</v>
+        <v>-0.3537082066869104</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1793,13 +1793,13 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-41.8614285714286</v>
+        <v>-41.86142857142858</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-41.53808510638304</v>
+        <v>-41.538085106383</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.3233434650455607</v>
+        <v>-0.3233434650455749</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1810,13 +1810,13 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-41.83714285714289</v>
+        <v>-41.83714285714287</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-41.54844984802438</v>
+        <v>-41.54844984802434</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.2886930091185107</v>
+        <v>-0.2886930091185249</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1827,13 +1827,13 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-41.81571428571431</v>
+        <v>-41.81571428571429</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-41.55881458966571</v>
+        <v>-41.55881458966567</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.2568996960486061</v>
+        <v>-0.2568996960486132</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1844,13 +1844,13 @@
         <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-41.78857142857146</v>
+        <v>-41.78857142857144</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-41.56917933130705</v>
+        <v>-41.56917933130701</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.2193920972644108</v>
+        <v>-0.219392097264425</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1861,13 +1861,13 @@
         <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-41.76857142857146</v>
+        <v>-41.76857142857143</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-41.57954407294839</v>
+        <v>-41.57954407294835</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.1890273556230682</v>
+        <v>-0.1890273556230824</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1878,13 +1878,13 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-41.75285714285717</v>
+        <v>-41.75285714285715</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-41.58990881458972</v>
+        <v>-41.58990881458969</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.1629483282674471</v>
+        <v>-0.1629483282674542</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1895,13 +1895,13 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-41.74047619047622</v>
+        <v>-41.7404761904762</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-41.60027355623106</v>
+        <v>-41.60027355623102</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.1402026342451563</v>
+        <v>-0.1402026342451776</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1912,13 +1912,13 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-41.72571428571431</v>
+        <v>-41.72571428571429</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-41.6106382978724</v>
+        <v>-41.61063829787236</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.1150759878419123</v>
+        <v>-0.1150759878419265</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1929,13 +1929,13 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-41.71904761904764</v>
+        <v>-41.71904761904763</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-41.62100303951374</v>
+        <v>-41.6210030395137</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.09804457953390511</v>
+        <v>-0.09804457953392642</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1946,13 +1946,13 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-41.71190476190479</v>
+        <v>-41.71190476190476</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-41.63136778115507</v>
+        <v>-41.63136778115503</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.08053698074972004</v>
+        <v>-0.08053698074972715</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1963,13 +1963,13 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-41.70761904761907</v>
+        <v>-41.70761904761905</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-41.64173252279641</v>
+        <v>-41.64173252279637</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.065886524822659</v>
+        <v>-0.06588652482267321</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1980,13 +1980,13 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-41.70333333333335</v>
+        <v>-41.70333333333333</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-41.65209726443775</v>
+        <v>-41.65209726443771</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.05123606889560506</v>
+        <v>-0.05123606889561927</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1997,13 +1997,13 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-41.69666666666669</v>
+        <v>-41.69666666666667</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-41.66246200607908</v>
+        <v>-41.66246200607905</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.03420466058760496</v>
+        <v>-0.03420466058761917</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2014,13 +2014,13 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-41.69380952380955</v>
+        <v>-41.69380952380953</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-41.67282674772042</v>
+        <v>-41.67282674772039</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.02098277608912724</v>
+        <v>-0.02098277608914145</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2031,13 +2031,13 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-41.70000000000003</v>
+        <v>-41.7</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-41.68319148936176</v>
+        <v>-41.68319148936173</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.01680851063827049</v>
+        <v>-0.0168085106382776</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2048,10 +2048,10 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-41.70476190476194</v>
+        <v>-41.70476190476191</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-41.69355623100309</v>
+        <v>-41.69355623100306</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>-0.01120567375884463</v>
@@ -2065,13 +2065,13 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-41.70952380952384</v>
+        <v>-41.70952380952382</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-41.70392097264443</v>
+        <v>-41.7039209726444</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-0.005602836879411655</v>
+        <v>-0.00560283687941876</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2082,13 +2082,13 @@
         <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
+        <v>-41.71428571428572</v>
+      </c>
+      <c r="C96" s="2" t="n">
         <v>-41.71428571428574</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>-41.71428571428577</v>
-      </c>
       <c r="D96" s="2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2099,10 +2099,10 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-41.72761904761907</v>
+        <v>-41.72761904761906</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-41.72761904761907</v>
+        <v>-41.72761904761906</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-41.7509523809524</v>
+        <v>-41.75095238095238</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-41.7509523809524</v>
+        <v>-41.75095238095238</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>-0.112</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-1.385866261398142</v>
+        <v>-1.385866261398156</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp4.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,54 +477,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-40.74</v>
+        <v>-42.33357142857146</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-40.74000000000002</v>
+        <v>-42.33357142857144</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>-2.131628207280301e-14</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.128</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-1.385866261398156</v>
+        <v>-0.1335357142857205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-41.01404761904763</v>
+        <v>-42.35785714285718</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-40.75036474164135</v>
+        <v>-42.32344047619049</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.263682877406282</v>
-      </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
+        <v>-0.03441666666668652</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-0.2832619047619218</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-41.15976190476191</v>
+        <v>-42.38357142857146</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-40.76072948328269</v>
+        <v>-42.31330952380954</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3990324214792267</v>
+        <v>-0.07026190476192085</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -532,16 +536,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-41.22047619047619</v>
+        <v>-42.40571428571431</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-40.77109422492403</v>
+        <v>-42.30317857142858</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4493819655521634</v>
+        <v>-0.1025357142857288</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -549,16 +553,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-41.24380952380952</v>
+        <v>-42.41571428571432</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-40.78145896656537</v>
+        <v>-42.29304761904763</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.4623505572441573</v>
+        <v>-0.1226666666666816</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -566,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-41.28190476190477</v>
+        <v>-42.41380952380955</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-40.7918237082067</v>
+        <v>-42.28291666666668</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.49008105369807</v>
+        <v>-0.130892857142868</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -583,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-41.32666666666667</v>
+        <v>-42.40380952380954</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-40.80218844984804</v>
+        <v>-42.27278571428572</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.5244782168186291</v>
+        <v>-0.1310238095238176</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -600,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-41.37666666666667</v>
+        <v>-42.3961904761905</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-40.81255319148938</v>
+        <v>-42.26265476190478</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5641134751772867</v>
+        <v>-0.1335357142857205</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -617,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-41.43714285714286</v>
+        <v>-42.38523809523812</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-40.82291793313071</v>
+        <v>-42.25252380952382</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.6142249240121487</v>
+        <v>-0.1327142857143002</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -634,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-41.48809523809524</v>
+        <v>-42.37523809523812</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-40.83328267477205</v>
+        <v>-42.24239285714287</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.6548125633231905</v>
+        <v>-0.1328452380952498</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -651,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-41.54285714285714</v>
+        <v>-42.35761904761907</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-40.84364741641339</v>
+        <v>-42.23226190476192</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.6992097264437547</v>
+        <v>-0.1253571428571476</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -668,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-41.60666666666667</v>
+        <v>-42.33952380952384</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-40.85401215805473</v>
+        <v>-42.22213095238097</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.7526545086119398</v>
+        <v>-0.1173928571428746</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -685,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-41.67</v>
+        <v>-42.32809523809527</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-40.86437689969606</v>
+        <v>-42.21200000000001</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.80562310030394</v>
+        <v>-0.1160952380952622</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -702,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-41.73714285714286</v>
+        <v>-42.3166666666667</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-40.8747416413374</v>
+        <v>-42.20186904761906</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.8624012158054555</v>
+        <v>-0.1147976190476356</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-41.80333333333333</v>
+        <v>-42.30238095238099</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-40.88510638297874</v>
+        <v>-42.19173809523811</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.9182269503545868</v>
+        <v>-0.1106428571428779</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-41.87095238095238</v>
+        <v>-42.28476190476194</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-40.89547112462007</v>
+        <v>-42.18160714285715</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.9754812563323085</v>
+        <v>-0.1031547619047828</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-41.93714285714286</v>
+        <v>-42.26666666666669</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-40.90583586626141</v>
+        <v>-42.17147619047621</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1.031306990881447</v>
+        <v>-0.09519047619048848</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-42.00142857142858</v>
+        <v>-42.25333333333337</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-40.91620060790275</v>
+        <v>-42.16134523809525</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.085227963525824</v>
+        <v>-0.09198809523811491</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-42.06476190476191</v>
+        <v>-42.24285714285717</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-40.92656534954409</v>
+        <v>-42.1512142857143</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.138196555217817</v>
+        <v>-0.09164285714287246</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-42.11952380952381</v>
+        <v>-42.23952380952384</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-40.93693009118542</v>
+        <v>-42.14108333333335</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.182593718338389</v>
+        <v>-0.09844047619048979</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-42.16952380952382</v>
+        <v>-42.23857142857146</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-40.94729483282676</v>
+        <v>-42.13095238095239</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.22222897669706</v>
+        <v>-0.1076190476190675</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-42.22238095238096</v>
+        <v>-42.24190476190479</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-40.9576595744681</v>
+        <v>-42.12082142857144</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.264721377912856</v>
+        <v>-0.1210833333333525</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-42.26190476190476</v>
+        <v>-42.24952380952384</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-40.96802431610944</v>
+        <v>-42.11069047619049</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.293880445795317</v>
+        <v>-0.1388333333333449</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-42.30190476190477</v>
+        <v>-42.25523809523813</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-40.97838905775077</v>
+        <v>-42.10055952380954</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.323515704153991</v>
+        <v>-0.1546785714285903</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-42.33380952380953</v>
+        <v>-42.2614285714286</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-40.98875379939211</v>
+        <v>-42.09042857142858</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.345055724417421</v>
+        <v>-0.1710000000000136</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-42.35904761904764</v>
+        <v>-42.26571428571432</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-40.99911854103345</v>
+        <v>-42.08029761904763</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1.359929078014183</v>
+        <v>-0.1854166666666828</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-42.38476190476192</v>
+        <v>-42.27285714285718</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-41.00948328267479</v>
+        <v>-42.07016666666668</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-1.37527862208713</v>
+        <v>-0.2026904761904973</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-42.40571428571428</v>
+        <v>-42.28000000000003</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-41.01984802431613</v>
+        <v>-42.06003571428572</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-1.385866261398156</v>
+        <v>-0.2199642857143047</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-42.41571428571429</v>
+        <v>-42.28238095238098</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-41.03021276595747</v>
+        <v>-42.04990476190478</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-1.385501519756822</v>
+        <v>-0.2324761904762056</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-42.41380952380952</v>
+        <v>-42.28761904761907</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-41.0405775075988</v>
+        <v>-42.03977380952382</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-1.373232016210714</v>
+        <v>-0.2478452380952518</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-42.40380952380953</v>
+        <v>-42.28428571428574</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-41.05094224924014</v>
+        <v>-42.02964285714287</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.352867274569391</v>
+        <v>-0.2546428571428763</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-42.39619047619048</v>
+        <v>-42.28095238095241</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-41.06130699088148</v>
+        <v>-42.01951190476192</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-1.334883485309</v>
+        <v>-0.2614404761904936</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-42.38523809523809</v>
+        <v>-42.28285714285717</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-41.07167173252282</v>
+        <v>-42.00938095238097</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-1.313566362715278</v>
+        <v>-0.2734761904762095</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-42.3752380952381</v>
+        <v>-42.28000000000003</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-41.08203647416415</v>
+        <v>-41.99925000000001</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-1.293201621073955</v>
+        <v>-0.2807500000000189</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-42.35761904761905</v>
+        <v>-42.27238095238098</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-41.09240121580549</v>
+        <v>-41.98911904761906</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-1.265217831813565</v>
+        <v>-0.2832619047619218</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-42.33952380952381</v>
+        <v>-42.25809523809527</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-41.10276595744683</v>
+        <v>-41.97898809523811</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.236757852076984</v>
+        <v>-0.279107142857157</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-42.32809523809524</v>
+        <v>-42.23809523809527</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-41.11313069908817</v>
+        <v>-41.96885714285715</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-1.214964539007077</v>
+        <v>-0.2692380952381157</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-42.31666666666668</v>
+        <v>-42.22047619047622</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-41.1234954407295</v>
+        <v>-41.95872619047621</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-1.193171225937178</v>
+        <v>-0.2617500000000135</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-42.30238095238096</v>
+        <v>-42.19952380952384</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-41.13386018237084</v>
+        <v>-41.94859523809525</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-1.168520770010126</v>
+        <v>-0.250928571428588</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-42.28476190476191</v>
+        <v>-42.18380952380955</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-41.14422492401218</v>
+        <v>-41.9384642857143</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-1.140536980749729</v>
+        <v>-0.2453452380952541</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-42.26666666666667</v>
+        <v>-42.16285714285717</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-41.15458966565351</v>
+        <v>-41.92833333333335</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-1.112077001013162</v>
+        <v>-0.2345238095238216</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-42.25333333333334</v>
+        <v>-42.14095238095241</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-41.16495440729485</v>
+        <v>-41.91820238095239</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-1.088378926038494</v>
+        <v>-0.2227500000000191</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-42.24285714285715</v>
+        <v>-42.12428571428574</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-41.17531914893619</v>
+        <v>-41.90807142857144</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-1.067537993920958</v>
+        <v>-0.216214285714301</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-42.23952380952382</v>
+        <v>-42.10000000000002</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-41.18568389057753</v>
+        <v>-41.89794047619049</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-1.053839918946288</v>
+        <v>-0.2020595238095311</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-42.23857142857144</v>
+        <v>-42.0761904761905</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-41.19604863221886</v>
+        <v>-41.88780952380954</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-1.042522796352578</v>
+        <v>-0.1883809523809674</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-42.24190476190477</v>
+        <v>-42.04952380952383</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-41.2064133738602</v>
+        <v>-41.87767857142858</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-1.035491388044569</v>
+        <v>-0.1718452380952513</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-42.24952380952382</v>
+        <v>-42.02190476190479</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-41.21677811550154</v>
+        <v>-41.86754761904763</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-1.032745694022275</v>
+        <v>-0.1543571428571582</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-42.2552380952381</v>
+        <v>-42.00238095238099</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-41.22714285714287</v>
+        <v>-41.85741666666668</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-1.028095238095226</v>
+        <v>-0.144964285714309</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-42.26142857142857</v>
+        <v>-41.98000000000003</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-41.23750759878421</v>
+        <v>-41.84728571428573</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-1.023920972644362</v>
+        <v>-0.1327142857143073</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-42.2657142857143</v>
+        <v>-41.9561904761905</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-41.24787234042555</v>
+        <v>-41.83715476190478</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-1.017841945288744</v>
+        <v>-0.1190357142857223</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-42.27285714285715</v>
+        <v>-41.92952380952384</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-41.25823708206689</v>
+        <v>-41.82702380952382</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-1.014620060790257</v>
+        <v>-0.1025000000000134</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-42.28</v>
+        <v>-41.90190476190479</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-41.26860182370822</v>
+        <v>-41.81689285714287</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-1.011398176291777</v>
+        <v>-0.08501190476192022</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-42.28238095238096</v>
+        <v>-41.8814285714286</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-41.27896656534956</v>
+        <v>-41.80676190476192</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-1.003414387031398</v>
+        <v>-0.07466666666667976</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-42.28761904761905</v>
+        <v>-41.86142857142859</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-41.2893313069909</v>
+        <v>-41.79663095238097</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.9982877406281503</v>
+        <v>-0.06479761904762427</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-42.28428571428572</v>
+        <v>-41.83714285714288</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-41.29969604863224</v>
+        <v>-41.78650000000001</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.9845896656534876</v>
+        <v>-0.05064285714286854</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-42.28095238095239</v>
+        <v>-41.81571428571431</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-41.31006079027357</v>
+        <v>-41.77636904761906</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.9708915906788178</v>
+        <v>-0.03934523809524393</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-42.28285714285715</v>
+        <v>-41.78857142857146</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-41.32042553191491</v>
+        <v>-41.76623809523811</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.9624316109422395</v>
+        <v>-0.02233333333334997</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-42.28000000000001</v>
+        <v>-41.76857142857146</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-41.33079027355625</v>
+        <v>-41.75610714285715</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.9492097264437547</v>
+        <v>-0.01246428571430158</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-42.27238095238096</v>
+        <v>-41.75285714285717</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-41.34115501519759</v>
+        <v>-41.74597619047621</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.9312259371833775</v>
+        <v>-0.006880952380960537</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-42.25809523809524</v>
+        <v>-41.74047619047622</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-41.35151975683893</v>
+        <v>-41.73584523809525</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.9065754812563185</v>
+        <v>-0.004630952380964004</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1505,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-42.23809523809524</v>
+        <v>-41.72571428571431</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-41.36188449848026</v>
+        <v>-41.7257142857143</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.8762107396149759</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1522,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-42.2204761904762</v>
+        <v>-41.71904761904765</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-41.3722492401216</v>
+        <v>-41.71904761904765</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.8482269503545936</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1539,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-42.19952380952382</v>
+        <v>-41.71190476190479</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-41.38261398176294</v>
+        <v>-41.71190476190479</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.8169098277608811</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1556,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-42.18380952380953</v>
+        <v>-41.70761904761907</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-41.39297872340428</v>
+        <v>-41.70761904761907</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.7908308004052529</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1573,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-42.16285714285715</v>
+        <v>-41.70333333333335</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-41.40334346504562</v>
+        <v>-41.70333333333335</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.7595136778115332</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1590,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-42.14095238095238</v>
+        <v>-41.69666666666669</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-41.41370820668695</v>
+        <v>-41.69666666666669</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.7272441742654365</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1607,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-42.12428571428572</v>
+        <v>-41.69380952380955</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-41.42407294832829</v>
+        <v>-41.69380952380955</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.7002127659574313</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1624,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-42.10000000000001</v>
+        <v>-41.70000000000002</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-41.43443768996963</v>
+        <v>-41.70000000000002</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.6655623100303814</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1641,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-42.07619047619048</v>
+        <v>-41.70476190476194</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-41.44480243161097</v>
+        <v>-41.70476190476194</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.6313880445795164</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1658,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-42.04952380952381</v>
+        <v>-41.70952380952384</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-41.4551671732523</v>
+        <v>-41.70952380952384</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.5943566362715131</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1675,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-42.02190476190476</v>
+        <v>-41.71428571428574</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-41.46553191489364</v>
+        <v>-41.71428571428574</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.5563728470111258</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1692,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-42.00238095238096</v>
+        <v>-41.72761904761908</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-41.47589665653498</v>
+        <v>-41.72761904761908</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.5264842958459823</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1709,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-41.98</v>
+        <v>-41.7509523809524</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-41.48626139817631</v>
+        <v>-41.7509523809524</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.4937386018236936</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1726,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-41.95619047619049</v>
+        <v>-41.77904761904767</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-41.49662613981765</v>
+        <v>-41.77904761904767</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.4595643363728357</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1743,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-41.92952380952381</v>
+        <v>-41.80047619047624</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-41.50699088145899</v>
+        <v>-41.80047619047624</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.4225329280648253</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,428 +1760,20 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-41.90190476190476</v>
+        <v>-41.80690476190482</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-41.51735562310033</v>
+        <v>-41.80690476190482</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.3845491388044309</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>-0.308</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>-41.88142857142857</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>-41.52772036474166</v>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>-0.3537082066869104</v>
-      </c>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="2" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>-0.312</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>-41.86142857142858</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>-41.538085106383</v>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>-0.3233434650455749</v>
-      </c>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-      <c r="G79" s="2" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>-0.316</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>-41.83714285714287</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>-41.54844984802434</v>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>-0.2886930091185249</v>
-      </c>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="2" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>-41.81571428571429</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>-41.55881458966567</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>-0.2568996960486132</v>
-      </c>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>-0.324</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>-41.78857142857144</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>-41.56917933130701</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>-0.219392097264425</v>
-      </c>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="2" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>-0.328</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>-41.76857142857143</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>-41.57954407294835</v>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>-0.1890273556230824</v>
-      </c>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="2" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>-0.332</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>-41.75285714285715</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>-41.58990881458969</v>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>-0.1629483282674542</v>
-      </c>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>-0.336</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>-41.7404761904762</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>-41.60027355623102</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>-0.1402026342451776</v>
-      </c>
-      <c r="E85" s="2" t="n"/>
-      <c r="F85" s="2" t="n"/>
-      <c r="G85" s="2" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>-41.72571428571429</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>-41.61063829787236</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>-0.1150759878419265</v>
-      </c>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>-0.344</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>-41.71904761904763</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>-41.6210030395137</v>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>-0.09804457953392642</v>
-      </c>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-      <c r="G87" s="2" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>-0.348</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>-41.71190476190476</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>-41.63136778115503</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>-0.08053698074972715</v>
-      </c>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>-0.352</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>-41.70761904761905</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>-41.64173252279637</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>-0.06588652482267321</v>
-      </c>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="2" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>-0.356</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>-41.70333333333333</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>-41.65209726443771</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>-0.05123606889561927</v>
-      </c>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>-41.69666666666667</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>-41.66246200607905</v>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>-0.03420466058761917</v>
-      </c>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="2" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>-0.364</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>-41.69380952380953</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>-41.67282674772039</v>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>-0.02098277608914145</v>
-      </c>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="2" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>-0.368</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>-41.7</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>-41.68319148936173</v>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>-0.0168085106382776</v>
-      </c>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="2" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>-0.372</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>-41.70476190476191</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>-41.69355623100306</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>-0.01120567375884463</v>
-      </c>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="2" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>-0.376</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>-41.70952380952382</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>-41.7039209726444</v>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>-0.00560283687941876</v>
-      </c>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="2" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>-41.71428571428572</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>-41.71428571428574</v>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>1.4210854715202e-14</v>
-      </c>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="2" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>-0.384</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>-41.72761904761906</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>-41.72761904761906</v>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="2" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>-0.388</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>-41.75095238095238</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>-41.75095238095238</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>-0.392</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>-41.77904761904767</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>-41.77904761904767</v>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="2" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>-0.396</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>-41.80047619047624</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>-41.80047619047624</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="2" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>-41.80690476190482</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>-41.80690476190482</v>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2190,7 +1786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2216,10 +1812,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.128</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-1.385866261398156</v>
+        <v>-0.1335357142857205</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-0.2832619047619218</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp4.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,58 +477,54 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-42.33357142857146</v>
+        <v>-40.74000000000003</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-42.33357142857144</v>
+        <v>-40.74000000000003</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.131628207280301e-14</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.112</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1335357142857205</v>
+        <v>-1.385866261398171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-42.35785714285718</v>
+        <v>-41.01404761904764</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-42.32344047619049</v>
+        <v>-40.75036474164136</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.03441666666668652</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="n">
-        <v>-0.236</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>-0.2832619047619218</v>
-      </c>
+        <v>-0.2636828774062749</v>
+      </c>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-42.38357142857146</v>
+        <v>-41.15976190476192</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-42.31330952380954</v>
+        <v>-40.7607294832827</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.07026190476192085</v>
+        <v>-0.3990324214792196</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -536,16 +532,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-42.40571428571431</v>
+        <v>-41.22047619047622</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-42.30317857142858</v>
+        <v>-40.77109422492404</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1025357142857288</v>
+        <v>-0.4493819655521776</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -553,16 +549,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-42.41571428571432</v>
+        <v>-41.24380952380955</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-42.29304761904763</v>
+        <v>-40.78145896656538</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1226666666666816</v>
+        <v>-0.4623505572441644</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -570,16 +566,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-42.41380952380955</v>
+        <v>-41.28190476190479</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-42.28291666666668</v>
+        <v>-40.79182370820671</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.130892857142868</v>
+        <v>-0.4900810536980771</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -587,16 +583,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-42.40380952380954</v>
+        <v>-41.3266666666667</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-42.27278571428572</v>
+        <v>-40.80218844984805</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1310238095238176</v>
+        <v>-0.5244782168186433</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -604,16 +600,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-42.3961904761905</v>
+        <v>-41.37666666666669</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-42.26265476190478</v>
+        <v>-40.81255319148939</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.1335357142857205</v>
+        <v>-0.5641134751773009</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -621,16 +617,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-42.38523809523812</v>
+        <v>-41.43714285714289</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-42.25252380952382</v>
+        <v>-40.82291793313073</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.1327142857143002</v>
+        <v>-0.6142249240121629</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -638,16 +634,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-42.37523809523812</v>
+        <v>-41.48809523809526</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-42.24239285714287</v>
+        <v>-40.83328267477206</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1328452380952498</v>
+        <v>-0.6548125633231976</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -655,16 +651,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-42.35761904761907</v>
+        <v>-41.54285714285717</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-42.23226190476192</v>
+        <v>-40.8436474164134</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1253571428571476</v>
+        <v>-0.6992097264437689</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -672,16 +668,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-42.33952380952384</v>
+        <v>-41.6066666666667</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-42.22213095238097</v>
+        <v>-40.85401215805474</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1173928571428746</v>
+        <v>-0.7526545086119611</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -689,16 +685,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-42.32809523809527</v>
+        <v>-41.67000000000003</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-42.21200000000001</v>
+        <v>-40.86437689969608</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1160952380952622</v>
+        <v>-0.8056231003039542</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -706,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-42.3166666666667</v>
+        <v>-41.73714285714289</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-42.20186904761906</v>
+        <v>-40.87474164133742</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1147976190476356</v>
+        <v>-0.8624012158054697</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -723,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-42.30238095238099</v>
+        <v>-41.80333333333336</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-42.19173809523811</v>
+        <v>-40.88510638297875</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1106428571428779</v>
+        <v>-0.918226950354601</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -740,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-42.28476190476194</v>
+        <v>-41.8709523809524</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-42.18160714285715</v>
+        <v>-40.89547112462009</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1031547619047828</v>
+        <v>-0.9754812563323156</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -757,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-42.26666666666669</v>
+        <v>-41.93714285714289</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-42.17147619047621</v>
+        <v>-40.90583586626143</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.09519047619048848</v>
+        <v>-1.031306990881461</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -774,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-42.25333333333337</v>
+        <v>-42.0014285714286</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-42.16134523809525</v>
+        <v>-40.91620060790277</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.09198809523811491</v>
+        <v>-1.085227963525831</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -791,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-42.24285714285717</v>
+        <v>-42.06476190476194</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-42.1512142857143</v>
+        <v>-40.9265653495441</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.09164285714287246</v>
+        <v>-1.138196555217839</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -808,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-42.23952380952384</v>
+        <v>-42.11952380952383</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-42.14108333333335</v>
+        <v>-40.93693009118544</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.09844047619048979</v>
+        <v>-1.182593718338396</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -825,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-42.23857142857146</v>
+        <v>-42.16952380952384</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-42.13095238095239</v>
+        <v>-40.94729483282678</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.1076190476190675</v>
+        <v>-1.22222897669706</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -842,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-42.24190476190479</v>
+        <v>-42.22238095238098</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-42.12082142857144</v>
+        <v>-40.95765957446811</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.1210833333333525</v>
+        <v>-1.264721377912871</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -859,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-42.24952380952384</v>
+        <v>-42.26190476190479</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-42.11069047619049</v>
+        <v>-40.96802431610945</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.1388333333333449</v>
+        <v>-1.293880445795338</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -876,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-42.25523809523813</v>
+        <v>-42.30190476190479</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-42.10055952380954</v>
+        <v>-40.97838905775079</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.1546785714285903</v>
+        <v>-1.323515704154005</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -893,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-42.2614285714286</v>
+        <v>-42.33380952380956</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-42.09042857142858</v>
+        <v>-40.98875379939213</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.1710000000000136</v>
+        <v>-1.345055724417428</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -910,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-42.26571428571432</v>
+        <v>-42.35904761904766</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-42.08029761904763</v>
+        <v>-40.99911854103346</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1854166666666828</v>
+        <v>-1.359929078014197</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -927,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-42.27285714285718</v>
+        <v>-42.38476190476193</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-42.07016666666668</v>
+        <v>-41.0094832826748</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.2026904761904973</v>
+        <v>-1.37527862208713</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -944,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-42.28000000000003</v>
+        <v>-42.40571428571431</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-42.06003571428572</v>
+        <v>-41.01984802431614</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.2199642857143047</v>
+        <v>-1.385866261398171</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -961,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-42.28238095238098</v>
+        <v>-42.41571428571432</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-42.04990476190478</v>
+        <v>-41.03021276595747</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.2324761904762056</v>
+        <v>-1.385501519756843</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -978,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-42.28761904761907</v>
+        <v>-42.41380952380955</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-42.03977380952382</v>
+        <v>-41.04057750759881</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2478452380952518</v>
+        <v>-1.373232016210736</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -995,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-42.28428571428574</v>
+        <v>-42.40380952380955</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-42.02964285714287</v>
+        <v>-41.05094224924015</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.2546428571428763</v>
+        <v>-1.352867274569398</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1012,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-42.28095238095241</v>
+        <v>-42.3961904761905</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-42.01951190476192</v>
+        <v>-41.06130699088148</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.2614404761904936</v>
+        <v>-1.334883485309014</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1029,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-42.28285714285717</v>
+        <v>-42.38523809523812</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-42.00938095238097</v>
+        <v>-41.07167173252282</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.2734761904762095</v>
+        <v>-1.313566362715299</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1046,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-42.28000000000003</v>
+        <v>-42.37523809523812</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-41.99925000000001</v>
+        <v>-41.08203647416416</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.2807500000000189</v>
+        <v>-1.293201621073955</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1063,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-42.27238095238098</v>
+        <v>-42.35761904761908</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-41.98911904761906</v>
+        <v>-41.0924012158055</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.2832619047619218</v>
+        <v>-1.26521783181358</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1080,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-42.25809523809527</v>
+        <v>-42.33952380952384</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-41.97898809523811</v>
+        <v>-41.10276595744683</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.279107142857157</v>
+        <v>-1.236757852077005</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1097,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-42.23809523809527</v>
+        <v>-42.32809523809527</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-41.96885714285715</v>
+        <v>-41.11313069908817</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.2692380952381157</v>
+        <v>-1.214964539007092</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1114,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-42.22047619047622</v>
+        <v>-42.3166666666667</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-41.95872619047621</v>
+        <v>-41.12349544072951</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.2617500000000135</v>
+        <v>-1.193171225937185</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1131,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-42.19952380952384</v>
+        <v>-42.30238095238099</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-41.94859523809525</v>
+        <v>-41.13386018237085</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.250928571428588</v>
+        <v>-1.16852077001014</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1148,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-42.18380952380955</v>
+        <v>-42.28476190476194</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-41.9384642857143</v>
+        <v>-41.14422492401219</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.2453452380952541</v>
+        <v>-1.140536980749751</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1165,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-42.16285714285717</v>
+        <v>-42.26666666666669</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-41.92833333333335</v>
+        <v>-41.15458966565352</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.2345238095238216</v>
+        <v>-1.112077001013169</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1182,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-42.14095238095241</v>
+        <v>-42.25333333333336</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-41.91820238095239</v>
+        <v>-41.16495440729486</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.2227500000000191</v>
+        <v>-1.088378926038502</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1199,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-42.12428571428574</v>
+        <v>-42.24285714285718</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-41.90807142857144</v>
+        <v>-41.1753191489362</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.216214285714301</v>
+        <v>-1.067537993920979</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1216,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-42.10000000000002</v>
+        <v>-42.23952380952385</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-41.89794047619049</v>
+        <v>-41.18568389057754</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.2020595238095311</v>
+        <v>-1.053839918946309</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1233,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-42.0761904761905</v>
+        <v>-42.23857142857146</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-41.88780952380954</v>
+        <v>-41.19604863221888</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1883809523809674</v>
+        <v>-1.042522796352586</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1250,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-42.04952380952383</v>
+        <v>-42.24190476190479</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-41.87767857142858</v>
+        <v>-41.20641337386021</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1718452380952513</v>
+        <v>-1.035491388044584</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1267,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-42.02190476190479</v>
+        <v>-42.24952380952384</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-41.86754761904763</v>
+        <v>-41.21677811550155</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.1543571428571582</v>
+        <v>-1.032745694022289</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1284,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-42.00238095238099</v>
+        <v>-42.25523809523813</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-41.85741666666668</v>
+        <v>-41.22714285714289</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.144964285714309</v>
+        <v>-1.02809523809524</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1301,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-41.98000000000003</v>
+        <v>-42.2614285714286</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-41.84728571428573</v>
+        <v>-41.23750759878422</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.1327142857143073</v>
+        <v>-1.023920972644376</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1318,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-41.9561904761905</v>
+        <v>-42.26571428571432</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-41.83715476190478</v>
+        <v>-41.24787234042556</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.1190357142857223</v>
+        <v>-1.017841945288758</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1335,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-41.92952380952384</v>
+        <v>-42.27285714285718</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-41.82702380952382</v>
+        <v>-41.2582370820669</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.1025000000000134</v>
+        <v>-1.014620060790278</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1352,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-41.90190476190479</v>
+        <v>-42.28000000000003</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-41.81689285714287</v>
+        <v>-41.26860182370824</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.08501190476192022</v>
+        <v>-1.011398176291792</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1369,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-41.8814285714286</v>
+        <v>-42.28238095238098</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-41.80676190476192</v>
+        <v>-41.27896656534957</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.07466666666667976</v>
+        <v>-1.003414387031413</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1386,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-41.86142857142859</v>
+        <v>-42.28761904761907</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-41.79663095238097</v>
+        <v>-41.28933130699091</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.06479761904762427</v>
+        <v>-0.9982877406281645</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1403,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-41.83714285714288</v>
+        <v>-42.28428571428574</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-41.78650000000001</v>
+        <v>-41.29969604863225</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.05064285714286854</v>
+        <v>-0.9845896656534947</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1420,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-41.81571428571431</v>
+        <v>-42.28095238095241</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-41.77636904761906</v>
+        <v>-41.31006079027358</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.03934523809524393</v>
+        <v>-0.970891590678832</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1437,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-41.78857142857146</v>
+        <v>-42.28285714285718</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-41.76623809523811</v>
+        <v>-41.32042553191492</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.02233333333334997</v>
+        <v>-0.9624316109422608</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1454,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-41.76857142857146</v>
+        <v>-42.28000000000003</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-41.75610714285715</v>
+        <v>-41.33079027355626</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01246428571430158</v>
+        <v>-0.9492097264437689</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1471,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-41.75285714285717</v>
+        <v>-42.27238095238098</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-41.74597619047621</v>
+        <v>-41.34115501519759</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.006880952380960537</v>
+        <v>-0.9312259371833917</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1488,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-41.74047619047622</v>
+        <v>-42.25809523809527</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-41.73584523809525</v>
+        <v>-41.35151975683893</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.004630952380964004</v>
+        <v>-0.9065754812563327</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1505,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-41.72571428571431</v>
+        <v>-42.23809523809527</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-41.7257142857143</v>
+        <v>-41.36188449848027</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-1.4210854715202e-14</v>
+        <v>-0.8762107396149972</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1522,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-41.71904761904765</v>
+        <v>-42.22047619047622</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-41.71904761904765</v>
+        <v>-41.37224924012161</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0</v>
+        <v>-0.8482269503546078</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1539,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-41.71190476190479</v>
+        <v>-42.19952380952384</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-41.71190476190479</v>
+        <v>-41.38261398176294</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0</v>
+        <v>-0.8169098277608953</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1556,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-41.70761904761907</v>
+        <v>-42.18380952380956</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-41.70761904761907</v>
+        <v>-41.39297872340428</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0</v>
+        <v>-0.7908308004052742</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1573,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-41.70333333333335</v>
+        <v>-42.16285714285717</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-41.70333333333335</v>
+        <v>-41.40334346504562</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0</v>
+        <v>-0.7595136778115474</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1590,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-41.69666666666669</v>
+        <v>-42.14095238095241</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-41.69666666666669</v>
+        <v>-41.41370820668696</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0</v>
+        <v>-0.7272441742654578</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1607,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-41.69380952380955</v>
+        <v>-42.12428571428574</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-41.69380952380955</v>
+        <v>-41.42407294832829</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>-0.7002127659574455</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1624,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-41.70000000000002</v>
+        <v>-42.10000000000002</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-41.70000000000002</v>
+        <v>-41.43443768996963</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>-0.6655623100303885</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1641,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-41.70476190476194</v>
+        <v>-42.0761904761905</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-41.70476190476194</v>
+        <v>-41.44480243161097</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0</v>
+        <v>-0.6313880445795377</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1658,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-41.70952380952384</v>
+        <v>-42.04952380952383</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-41.70952380952384</v>
+        <v>-41.45516717325231</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0</v>
+        <v>-0.5943566362715273</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1675,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-41.71428571428574</v>
+        <v>-42.02190476190479</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-41.71428571428574</v>
+        <v>-41.46553191489365</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0</v>
+        <v>-0.5563728470111471</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1692,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-41.72761904761908</v>
+        <v>-42.00238095238098</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-41.72761904761908</v>
+        <v>-41.47589665653499</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0</v>
+        <v>-0.5264842958459965</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1709,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-41.7509523809524</v>
+        <v>-41.98000000000003</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-41.7509523809524</v>
+        <v>-41.48626139817632</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0</v>
+        <v>-0.4937386018237149</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1726,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-41.77904761904767</v>
+        <v>-41.9561904761905</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-41.77904761904767</v>
+        <v>-41.49662613981766</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0</v>
+        <v>-0.4595643363728428</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1743,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-41.80047619047624</v>
+        <v>-41.92952380952384</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-41.80047619047624</v>
+        <v>-41.506990881459</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0</v>
+        <v>-0.4225329280648396</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1760,20 +1756,428 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-41.80690476190482</v>
+        <v>-41.90190476190479</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-41.80690476190482</v>
+        <v>-41.51735562310033</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0</v>
+        <v>-0.3845491388044593</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>-41.8814285714286</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>-41.52772036474167</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>-0.3537082066869317</v>
+      </c>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
+      <c r="G78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>-0.312</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>-41.8614285714286</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>-41.53808510638301</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>-0.3233434650455891</v>
+      </c>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="2" t="n"/>
+      <c r="G79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>-0.316</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>-41.83714285714289</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>-41.54844984802434</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>-0.2886930091185462</v>
+      </c>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="n"/>
+      <c r="G80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>-41.81571428571431</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>-41.55881458966568</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>-0.2568996960486345</v>
+      </c>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>-0.324</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>-41.78857142857146</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>-41.56917933130702</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>-0.2193920972644392</v>
+      </c>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="n"/>
+      <c r="G82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>-41.76857142857146</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>-41.57954407294836</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>-0.1890273556230966</v>
+      </c>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+      <c r="G83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>-41.75285714285717</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>-41.58990881458969</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>-0.1629483282674755</v>
+      </c>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+      <c r="G84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>-0.336</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>-41.74047619047622</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>-41.60027355623103</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>-0.1402026342451848</v>
+      </c>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="n"/>
+      <c r="G85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>-41.72571428571431</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>-41.61063829787237</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>-0.1150759878419407</v>
+      </c>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>-0.344</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>-41.71904761904764</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>-41.6210030395137</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>-0.09804457953394063</v>
+      </c>
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="n"/>
+      <c r="G87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>-0.348</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>-41.71190476190479</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>-41.63136778115504</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>-0.08053698074974847</v>
+      </c>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="n"/>
+      <c r="G88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>-0.352</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>-41.70761904761907</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>-41.64173252279638</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>-0.06588652482268742</v>
+      </c>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+      <c r="G89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>-0.356</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>-41.70333333333335</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>-41.65209726443771</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>-0.05123606889564059</v>
+      </c>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>-41.69666666666669</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>-41.66246200607905</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>-0.03420466058763338</v>
+      </c>
+      <c r="E91" s="2" t="n"/>
+      <c r="F91" s="2" t="n"/>
+      <c r="G91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>-0.364</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>-41.69380952380955</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>-41.67282674772039</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>-0.02098277608915566</v>
+      </c>
+      <c r="E92" s="2" t="n"/>
+      <c r="F92" s="2" t="n"/>
+      <c r="G92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>-0.368</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>-41.70000000000003</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>-41.68319148936173</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>-0.01680851063829891</v>
+      </c>
+      <c r="E93" s="2" t="n"/>
+      <c r="F93" s="2" t="n"/>
+      <c r="G93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>-0.372</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>-41.70476190476194</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>-41.69355623100306</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>-0.01120567375887305</v>
+      </c>
+      <c r="E94" s="2" t="n"/>
+      <c r="F94" s="2" t="n"/>
+      <c r="G94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>-0.376</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>-41.70952380952384</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>-41.7039209726444</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>-0.005602836879440076</v>
+      </c>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="n"/>
+      <c r="G95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>-41.71428571428574</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>-41.71428571428574</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="n"/>
+      <c r="G96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>-0.384</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>-41.72761904761907</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>-41.72761904761907</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="n"/>
+      <c r="F97" s="2" t="n"/>
+      <c r="G97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>-0.388</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>-41.7509523809524</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>-41.7509523809524</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+      <c r="G98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>-0.392</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>-41.77904761904767</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>-41.77904761904767</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>-0.396</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>-41.80047619047626</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>-41.80047619047626</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+      <c r="G100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>-41.80690476190486</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>-41.80690476190486</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+      <c r="G101" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1786,7 +2190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1812,18 +2216,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.112</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1335357142857205</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>-0.236</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>-0.2832619047619218</v>
+        <v>-1.385866261398171</v>
       </c>
     </row>
   </sheetData>
